--- a/+ExperimentPkg/EGTDecayData.xlsx
+++ b/+ExperimentPkg/EGTDecayData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/279bc981ad399937/Desktop/phdshit/ideas/FAST/^MExperimentPkg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="11_F25DC773A252ABDACC1048AE315C4FCC5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E763F214-1117-4206-863C-312E129C1CBC}"/>
+  <xr:revisionPtr revIDLastSave="204" documentId="11_F25DC773A252ABDACC1048AE315C4FCC5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{113A73FD-83EB-45DB-B9BF-DEC81FA161F0}"/>
   <bookViews>
-    <workbookView xWindow="10350" yWindow="4000" windowWidth="13630" windowHeight="11650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2570" yWindow="1600" windowWidth="14170" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SV_cycle" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="47">
   <si>
     <t>Engine</t>
   </si>
@@ -155,6 +155,30 @@
   <si>
     <t>totSV3</t>
   </si>
+  <si>
+    <t>SV1EGT</t>
+  </si>
+  <si>
+    <t>%EGTLifeLeft</t>
+  </si>
+  <si>
+    <t>1000c_EGTdecay</t>
+  </si>
+  <si>
+    <t>2000c_EGTdecay</t>
+  </si>
+  <si>
+    <t>SV1_EGTrecov</t>
+  </si>
+  <si>
+    <t>Cycle</t>
+  </si>
+  <si>
+    <t>EGT</t>
+  </si>
+  <si>
+    <t>EIS</t>
+  </si>
 </sst>
 </file>
 
@@ -204,7 +228,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -223,6 +247,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -240,6 +265,4454 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>EGT v Cycles for CFM56-3C No Derate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SV_cycle!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EGT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SV_cycle!$A$24:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SV_cycle!$B$24:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5110-460D-AE00-131C8E9AD376}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>"Linear"</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="1000"/>
+            <c:backward val="3000"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SV_cycle!$A$27:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SV_cycle!$B$27:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5110-460D-AE00-131C8E9AD376}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="876263663"/>
+        <c:axId val="876264143"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="876263663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cycles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="876264143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="876264143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>EGT Decay</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="876263663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SV_cycle!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EGT_Margin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SV_cycle!$E$2:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3829787234042548E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14893617021276595</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21276595744680851</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27088607594936709</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22531645569620254</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21518987341772153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21518987341772153</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3797468354430382E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.265625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.27187499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SV_cycle!$F$2:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B77-4440-B9F1-105E7ED808DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1314269119"/>
+        <c:axId val="1314266239"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1314269119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1314266239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1314266239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1314269119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>EGT</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> v Cycles Rate</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SV_cycle!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ratec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SV_cycle!$E$2:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3829787234042548E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14893617021276595</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21276595744680851</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27088607594936709</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22531645569620254</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21518987341772153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21518987341772153</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3797468354430382E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.265625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.27187499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SV_cycle!$M$2:$M$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5538-41D1-827F-77AD2AC678CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1043335023"/>
+        <c:axId val="1043334543"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1043335023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1043334543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1043334543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1043335023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> EGT</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Decay</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SV_cycle!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000c_EGTdecay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SV_cycle!$E$2:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3829787234042548E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14893617021276595</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21276595744680851</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27088607594936709</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22531645569620254</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21518987341772153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21518987341772153</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3797468354430382E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.265625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.27187499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SV_cycle!$N$2:$N$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E27-49BC-9136-75ED4BB86BF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SV_cycle!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2000c_EGTdecay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SV_cycle!$E$2:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3829787234042548E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14893617021276595</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21276595744680851</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27088607594936709</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22531645569620254</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21518987341772153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21518987341772153</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3797468354430382E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.265625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.27187499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SV_cycle!$O$2:$O$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7E27-49BC-9136-75ED4BB86BF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1666477839"/>
+        <c:axId val="1666473999"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1666477839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1666473999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1666473999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1666477839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1022350</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7843EC27-29FA-67C7-086C-E7AE3BD7C05F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>631825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CC899CB-3E53-4A0E-DC5F-7E912A420ABB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>612775</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>117475</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48CD6CE0-DAF8-FEB2-B171-EB8B31A5B4E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>701675</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F34B0D2-C771-EF61-332F-731298FC4F3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -505,18 +4978,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B381FDB8-0139-4634-92E7-683DB926A4B4}">
-  <dimension ref="A1:AK20"/>
+  <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="L20" workbookViewId="0">
+      <selection activeCell="W59" sqref="W59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.08984375" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" customWidth="1"/>
+    <col min="8" max="8" width="13.36328125" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="15.08984375" customWidth="1"/>
+    <col min="17" max="17" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -527,31 +5003,52 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>38</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="Y1"/>
       <c r="Z1"/>
@@ -575,34 +5072,62 @@
         <v>6</v>
       </c>
       <c r="C2">
+        <v>1982</v>
+      </c>
+      <c r="D2">
         <v>23500</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>53</v>
       </c>
-      <c r="F2" s="2">
-        <f>E2*0.8</f>
+      <c r="G2" s="2">
+        <f>F2*0.8</f>
         <v>42.400000000000006</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>6000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>4800</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>4100</v>
       </c>
-      <c r="J2">
-        <f>H2+G2</f>
+      <c r="K2">
+        <f>I2+H2</f>
         <v>10800</v>
       </c>
-      <c r="K2">
-        <f>J2+I2</f>
+      <c r="L2">
+        <f>K2+J2</f>
         <v>14900</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>15</v>
+      </c>
+      <c r="P2">
+        <f>O2+M2*(H2-2000)/1000</f>
+        <v>27</v>
+      </c>
+      <c r="Q2" s="10">
+        <f>(F2-P2)/F2</f>
+        <v>0.49056603773584906</v>
+      </c>
+      <c r="R2">
+        <f>P2*0.85</f>
+        <v>22.95</v>
+      </c>
+      <c r="S2">
+        <f>G2-P2+R2</f>
+        <v>38.350000000000009</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -613,35 +5138,63 @@
         <v>6</v>
       </c>
       <c r="C3">
+        <v>1984</v>
+      </c>
+      <c r="D3">
         <v>22000</v>
       </c>
-      <c r="D3" s="1">
-        <f>(C$2-C3)/C$2</f>
+      <c r="E3" s="1">
+        <f>(D$2-D3)/D$2</f>
         <v>6.3829787234042548E-2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>75</v>
       </c>
-      <c r="F3" s="2">
-        <f t="shared" ref="F3:F5" si="0">E3*0.8</f>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G5" si="0">F3*0.8</f>
         <v>60</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>6700</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>5300</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>4500</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J20" si="1">H3+G3</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K20" si="1">I3+H3</f>
         <v>12000</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K20" si="2">J3+I3</f>
+      <c r="L3">
+        <f t="shared" ref="L3:L20" si="2">K3+J3</f>
         <v>16500</v>
+      </c>
+      <c r="M3">
+        <v>2.5</v>
+      </c>
+      <c r="N3">
+        <v>7</v>
+      </c>
+      <c r="O3">
+        <v>11</v>
+      </c>
+      <c r="P3">
+        <f>O3+M3*(H3-2000)/1000</f>
+        <v>22.75</v>
+      </c>
+      <c r="Q3" s="10">
+        <f>(F3-P3)/F3</f>
+        <v>0.69666666666666666</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R20" si="3">P3*0.85</f>
+        <v>19.337499999999999</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S20" si="4">G3-P3+R3</f>
+        <v>56.587499999999999</v>
       </c>
       <c r="T3" s="4"/>
     </row>
@@ -653,35 +5206,63 @@
         <v>6</v>
       </c>
       <c r="C4">
+        <v>1984</v>
+      </c>
+      <c r="D4">
         <v>20000</v>
       </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:D5" si="3">(C$2-C4)/C$2</f>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E5" si="5">(D$2-D4)/D$2</f>
         <v>0.14893617021276595</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>140</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>7600</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>6000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>5200</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f t="shared" si="1"/>
         <v>13600</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <f t="shared" si="2"/>
         <v>18800</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+      <c r="P4">
+        <f>O4+M4*(H4-2000)/1000</f>
+        <v>21.2</v>
+      </c>
+      <c r="Q4" s="10">
+        <f>(F4-P4)/F4</f>
+        <v>0.84857142857142853</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="3"/>
+        <v>18.02</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="4"/>
+        <v>108.82</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.35">
@@ -692,35 +5273,63 @@
         <v>6</v>
       </c>
       <c r="C5">
+        <v>1984</v>
+      </c>
+      <c r="D5">
         <v>18500</v>
       </c>
-      <c r="D5" s="1">
-        <f t="shared" si="3"/>
+      <c r="E5" s="1">
+        <f t="shared" si="5"/>
         <v>0.21276595744680851</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>145</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>8200</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>6500</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>5600</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f t="shared" si="1"/>
         <v>14700</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <f t="shared" si="2"/>
         <v>20300</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <v>9</v>
+      </c>
+      <c r="P5">
+        <f>O5+M5*(H5-2000)/1000</f>
+        <v>21.4</v>
+      </c>
+      <c r="Q5" s="10">
+        <f>(F5-P5)/F5</f>
+        <v>0.85241379310344823</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>18.189999999999998</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="4"/>
+        <v>112.78999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.35">
@@ -730,35 +5339,63 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6">
+        <v>1993</v>
+      </c>
+      <c r="D6" s="7">
         <v>23040</v>
       </c>
-      <c r="D6" s="1">
-        <f t="shared" ref="D6:D9" si="4">(C$11-C6)/C$11</f>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6:E9" si="6">(D$11-D6)/D$11</f>
         <v>0.27088607594936709</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>100</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>75</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>11000</v>
-      </c>
-      <c r="H6">
-        <v>9000</v>
       </c>
       <c r="I6">
         <v>9000</v>
       </c>
       <c r="J6">
+        <v>9000</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <f t="shared" si="2"/>
         <v>29000</v>
+      </c>
+      <c r="M6">
+        <v>2.1</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>9</v>
+      </c>
+      <c r="P6">
+        <f>O6+M6*(H6-2000)/1000</f>
+        <v>27.9</v>
+      </c>
+      <c r="Q6" s="10">
+        <f>(F6-P6)/F6</f>
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>23.715</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="4"/>
+        <v>70.814999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.35">
@@ -768,35 +5405,63 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7">
+        <v>1993</v>
+      </c>
+      <c r="D7" s="7">
         <v>24480</v>
       </c>
-      <c r="D7" s="1">
-        <f t="shared" si="4"/>
+      <c r="E7" s="1">
+        <f t="shared" si="6"/>
         <v>0.22531645569620254</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>90</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>75</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>11000</v>
-      </c>
-      <c r="H7">
-        <v>9000</v>
       </c>
       <c r="I7">
         <v>9000</v>
       </c>
       <c r="J7">
+        <v>9000</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <f t="shared" si="2"/>
         <v>29000</v>
+      </c>
+      <c r="M7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>9</v>
+      </c>
+      <c r="P7">
+        <f>O7+M7*(H7-2000)/1000</f>
+        <v>29.7</v>
+      </c>
+      <c r="Q7" s="10">
+        <f>(F7-P7)/F7</f>
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>25.244999999999997</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="4"/>
+        <v>70.544999999999987</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.35">
@@ -806,35 +5471,63 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8">
+        <v>1993</v>
+      </c>
+      <c r="D8" s="7">
         <v>24800</v>
       </c>
-      <c r="D8" s="1">
-        <f t="shared" si="4"/>
+      <c r="E8" s="1">
+        <f t="shared" si="6"/>
         <v>0.21518987341772153</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>80</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>65</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>9000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>8000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>9000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f t="shared" si="1"/>
         <v>17000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <f t="shared" si="2"/>
         <v>26000</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>11</v>
+      </c>
+      <c r="P8">
+        <f>O8+M8*(H8-2000)/1000</f>
+        <v>32</v>
+      </c>
+      <c r="Q8" s="10">
+        <f>(F8-P8)/F8</f>
+        <v>0.6</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>27.2</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="4"/>
+        <v>60.2</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.35">
@@ -844,35 +5537,63 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9">
+        <v>1993</v>
+      </c>
+      <c r="D9" s="7">
         <v>24800</v>
       </c>
-      <c r="D9" s="1">
-        <f t="shared" si="4"/>
+      <c r="E9" s="1">
+        <f t="shared" si="6"/>
         <v>0.21518987341772153</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>70</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>55</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>8750</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>7750</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>7000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f t="shared" si="1"/>
         <v>16500</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <f t="shared" si="2"/>
         <v>23500</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>8</v>
+      </c>
+      <c r="O9">
+        <v>14</v>
+      </c>
+      <c r="P9">
+        <f>O9+M9*(H9-2000)/1000</f>
+        <v>34.25</v>
+      </c>
+      <c r="Q9" s="10">
+        <f>(F9-P9)/F9</f>
+        <v>0.51071428571428568</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>29.112500000000001</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="4"/>
+        <v>49.862499999999997</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.35">
@@ -882,35 +5603,63 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10">
+        <v>1993</v>
+      </c>
+      <c r="D10" s="7">
         <v>29900</v>
       </c>
-      <c r="D10" s="1">
-        <f>(C$11-C10)/C$11</f>
+      <c r="E10" s="1">
+        <f>(D$11-D10)/D$11</f>
         <v>5.3797468354430382E-2</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>55</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>45</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>7000</v>
-      </c>
-      <c r="H10">
-        <v>5750</v>
       </c>
       <c r="I10">
         <v>5750</v>
       </c>
       <c r="J10">
+        <v>5750</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="1"/>
         <v>12750</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <f t="shared" si="2"/>
         <v>18500</v>
+      </c>
+      <c r="M10">
+        <v>3.5</v>
+      </c>
+      <c r="N10">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>14</v>
+      </c>
+      <c r="P10">
+        <f>O10+M10*(H10-2000)/1000</f>
+        <v>31.5</v>
+      </c>
+      <c r="Q10" s="10">
+        <f>(F10-P10)/F10</f>
+        <v>0.42727272727272725</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>26.774999999999999</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="4"/>
+        <v>40.274999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.35">
@@ -920,34 +5669,62 @@
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11">
+        <v>1993</v>
+      </c>
+      <c r="D11" s="7">
         <v>31600</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>45</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>35</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>7000</v>
-      </c>
-      <c r="H11">
-        <v>5750</v>
       </c>
       <c r="I11">
         <v>5750</v>
       </c>
       <c r="J11">
+        <v>5750</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="1"/>
         <v>12750</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <f t="shared" si="2"/>
         <v>18500</v>
+      </c>
+      <c r="M11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N11">
+        <v>8</v>
+      </c>
+      <c r="O11">
+        <v>15</v>
+      </c>
+      <c r="P11">
+        <f>O11+M11*(H11-2000)/1000</f>
+        <v>35.5</v>
+      </c>
+      <c r="Q11" s="10">
+        <f>(F11-P11)/F11</f>
+        <v>0.21111111111111111</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>30.175000000000001</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="4"/>
+        <v>29.675000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.35">
@@ -957,38 +5734,63 @@
       <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12">
+        <v>1993</v>
+      </c>
+      <c r="D12" s="8">
         <v>32000</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>66</v>
       </c>
-      <c r="F12" s="2">
-        <f>E12*0.8</f>
+      <c r="G12" s="2">
+        <f>F12*0.8</f>
         <v>52.800000000000004</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>8000</v>
-      </c>
-      <c r="H12">
-        <v>6000</v>
       </c>
       <c r="I12">
         <v>6000</v>
       </c>
       <c r="J12">
+        <v>6000</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="1"/>
         <v>14000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
-      <c r="R12" s="9">
+      <c r="M12" s="9">
         <v>7</v>
+      </c>
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>17</v>
+      </c>
+      <c r="P12">
+        <f>O12+M12*(H12-2000)/1000</f>
+        <v>59</v>
+      </c>
+      <c r="Q12" s="10">
+        <f>(F12-P12)/F12</f>
+        <v>0.10606060606060606</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>50.15</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="4"/>
+        <v>43.95</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.35">
@@ -998,39 +5800,64 @@
       <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13">
+        <v>1993</v>
+      </c>
+      <c r="D13" s="8">
         <v>31000</v>
       </c>
-      <c r="D13" s="1">
-        <f>(C$12-C13)/C$12</f>
+      <c r="E13" s="1">
+        <f>(D$12-D13)/D$12</f>
         <v>3.125E-2</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>95</v>
       </c>
-      <c r="F13" s="2">
-        <f>E13*0.8</f>
+      <c r="G13" s="2">
+        <f>F13*0.8</f>
         <v>76</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>10000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>7000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>6000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f t="shared" si="1"/>
         <v>17000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <f t="shared" si="2"/>
         <v>23000</v>
       </c>
-      <c r="R13" s="9">
+      <c r="M13" s="9">
         <v>6</v>
+      </c>
+      <c r="N13">
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <v>17</v>
+      </c>
+      <c r="P13">
+        <f>O13+M13*(H13-2000)/1000</f>
+        <v>65</v>
+      </c>
+      <c r="Q13" s="10">
+        <f>(F13-P13)/F13</f>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>55.25</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="4"/>
+        <v>66.25</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.35">
@@ -1040,37 +5867,64 @@
       <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14">
+        <v>1993</v>
+      </c>
+      <c r="D14" s="8">
         <v>30000</v>
       </c>
-      <c r="D14" s="1">
-        <f t="shared" ref="D14:D20" si="5">(C$12-C14)/C$12</f>
+      <c r="E14" s="1">
+        <f t="shared" ref="E14:E19" si="7">(D$12-D14)/D$12</f>
         <v>6.25E-2</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>105</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>80</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>11000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>8000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>7000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <f t="shared" si="1"/>
         <v>19000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <f t="shared" si="2"/>
         <v>26000</v>
       </c>
-      <c r="R14" s="9"/>
+      <c r="M14" s="9">
+        <v>6</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <v>17</v>
+      </c>
+      <c r="P14">
+        <f>O14+M14*(H14-2000)/1000</f>
+        <v>71</v>
+      </c>
+      <c r="Q14" s="10">
+        <f>(F14-P14)/F14</f>
+        <v>0.32380952380952382</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="3"/>
+        <v>60.35</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="4"/>
+        <v>69.349999999999994</v>
+      </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -1079,39 +5933,64 @@
       <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15">
+        <v>1993</v>
+      </c>
+      <c r="D15" s="8">
         <v>27000</v>
       </c>
-      <c r="D15" s="1">
-        <f t="shared" si="5"/>
+      <c r="E15" s="1">
+        <f t="shared" si="7"/>
         <v>0.15625</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>109</v>
       </c>
-      <c r="F15">
-        <f>E15*0.8</f>
+      <c r="G15">
+        <f>F15*0.8</f>
         <v>87.2</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>18000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>10000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>8000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <f t="shared" si="1"/>
         <v>28000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <f t="shared" si="2"/>
         <v>36000</v>
       </c>
-      <c r="R15" s="9">
+      <c r="M15" s="9">
         <v>4</v>
+      </c>
+      <c r="N15">
+        <v>10</v>
+      </c>
+      <c r="O15">
+        <v>17</v>
+      </c>
+      <c r="P15">
+        <f>O15+M15*(H15-2000)/1000</f>
+        <v>81</v>
+      </c>
+      <c r="Q15" s="10">
+        <f>(F15-P15)/F15</f>
+        <v>0.25688073394495414</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>68.849999999999994</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="4"/>
+        <v>75.05</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.35">
@@ -1121,205 +6000,405 @@
       <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16">
+        <v>1993</v>
+      </c>
+      <c r="D16" s="8">
         <v>27000</v>
       </c>
-      <c r="D16" s="1">
-        <f t="shared" si="5"/>
+      <c r="E16" s="1">
+        <f t="shared" si="7"/>
         <v>0.15625</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>109</v>
       </c>
-      <c r="F16">
-        <f>E16*0.8</f>
+      <c r="G16">
+        <f>F16*0.8</f>
         <v>87.2</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>18000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>10000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>8000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <f t="shared" si="1"/>
         <v>28000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <f t="shared" si="2"/>
         <v>36000</v>
       </c>
-      <c r="R16" s="9">
+      <c r="M16" s="9">
         <v>4</v>
       </c>
+      <c r="N16">
+        <v>10</v>
+      </c>
+      <c r="O16">
+        <v>17</v>
+      </c>
+      <c r="P16">
+        <f>O16+M16*(H16-2000)/1000</f>
+        <v>81</v>
+      </c>
+      <c r="Q16" s="10">
+        <f>(F16-P16)/F16</f>
+        <v>0.25688073394495414</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="3"/>
+        <v>68.849999999999994</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="4"/>
+        <v>75.05</v>
+      </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17">
+        <v>1993</v>
+      </c>
+      <c r="D17" s="8">
         <v>23500</v>
       </c>
-      <c r="D17" s="1">
-        <f t="shared" si="5"/>
+      <c r="E17" s="1">
+        <f t="shared" si="7"/>
         <v>0.265625</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>145</v>
       </c>
-      <c r="F17">
-        <f>E17*0.78</f>
+      <c r="G17">
+        <f>F17*0.78</f>
         <v>113.10000000000001</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>19000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>11000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>9000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <f t="shared" si="2"/>
         <v>39000</v>
       </c>
-      <c r="R17" s="9"/>
+      <c r="M17" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="N17">
+        <v>10</v>
+      </c>
+      <c r="O17">
+        <v>17</v>
+      </c>
+      <c r="P17">
+        <f>O17+M17*(H17-2000)/1000</f>
+        <v>76.5</v>
+      </c>
+      <c r="Q17" s="10">
+        <f>(F17-P17)/F17</f>
+        <v>0.47241379310344828</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="3"/>
+        <v>65.024999999999991</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="4"/>
+        <v>101.625</v>
+      </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18">
+        <v>1993</v>
+      </c>
+      <c r="D18" s="8">
         <v>22000</v>
       </c>
-      <c r="D18" s="1">
-        <f t="shared" si="5"/>
+      <c r="E18" s="1">
+        <f t="shared" si="7"/>
         <v>0.3125</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>163</v>
       </c>
-      <c r="F18">
-        <f t="shared" ref="F18:F20" si="6">E18*0.78</f>
+      <c r="G18">
+        <f t="shared" ref="G18:G20" si="8">F18*0.78</f>
         <v>127.14</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>20000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>12000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>10000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <f t="shared" si="1"/>
         <v>32000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <f t="shared" si="2"/>
         <v>42000</v>
       </c>
-      <c r="R18" s="9"/>
+      <c r="M18" s="9">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>10</v>
+      </c>
+      <c r="O18">
+        <v>17</v>
+      </c>
+      <c r="P18">
+        <f>O18+M18*(H18-2000)/1000</f>
+        <v>71</v>
+      </c>
+      <c r="Q18" s="10">
+        <f>(F18-P18)/F18</f>
+        <v>0.56441717791411039</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>60.35</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="4"/>
+        <v>116.49000000000001</v>
+      </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19">
+        <v>1993</v>
+      </c>
+      <c r="D19" s="8">
         <v>21600</v>
       </c>
-      <c r="D19" s="1">
-        <f t="shared" si="5"/>
+      <c r="E19" s="1">
+        <f t="shared" si="7"/>
         <v>0.32500000000000001</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>180</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="6"/>
+      <c r="G19">
+        <f t="shared" si="8"/>
         <v>140.4</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>20000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>12000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>10000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <f t="shared" si="1"/>
         <v>32000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <f t="shared" si="2"/>
         <v>42000</v>
       </c>
-      <c r="R19" s="9">
-        <v>3</v>
+      <c r="M19" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="N19">
+        <v>10</v>
+      </c>
+      <c r="O19">
+        <v>17</v>
+      </c>
+      <c r="P19">
+        <f>O19+M19*(H19-2000)/1000</f>
+        <v>67.400000000000006</v>
+      </c>
+      <c r="Q19" s="10">
+        <f>(F19-P19)/F19</f>
+        <v>0.62555555555555553</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="3"/>
+        <v>57.290000000000006</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="4"/>
+        <v>130.29000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20">
+        <v>1993</v>
+      </c>
+      <c r="D20" s="8">
         <v>23300</v>
       </c>
-      <c r="D20" s="1">
-        <f t="shared" si="5"/>
+      <c r="E20" s="1">
+        <f>(D$12-D20)/D$12</f>
         <v>0.27187499999999998</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
         <v>145</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="6"/>
+      <c r="G20">
+        <f t="shared" si="8"/>
         <v>113.10000000000001</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>19000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>11000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>9000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <f t="shared" si="2"/>
         <v>39000</v>
       </c>
-      <c r="R20" s="9"/>
+      <c r="M20" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="N20">
+        <v>10</v>
+      </c>
+      <c r="O20">
+        <v>17</v>
+      </c>
+      <c r="P20">
+        <f>O20+M20*(H20-2000)/1000</f>
+        <v>76.5</v>
+      </c>
+      <c r="Q20" s="10">
+        <f>(F20-P20)/F20</f>
+        <v>0.47241379310344828</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="3"/>
+        <v>65.024999999999991</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="4"/>
+        <v>101.625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>1000</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>2000</v>
+      </c>
+      <c r="B26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>3000</v>
+      </c>
+      <c r="B27">
+        <f>B26+3</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>4000</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:B30" si="9">B27+3</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>5000</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>6000</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1328,7 +6407,7 @@
   <dimension ref="A1:AH20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:N1"/>
+      <selection activeCell="F1" sqref="F1:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1901,23 +6980,23 @@
         <v>17</v>
       </c>
       <c r="J12" s="9">
-        <f>I12+$F12</f>
+        <f t="shared" ref="J12:N20" si="2">I12+$F12</f>
         <v>24</v>
       </c>
       <c r="K12" s="9">
-        <f>J12+$F12</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="L12" s="9">
-        <f>K12+$F12</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="M12" s="9">
-        <f>L12+$F12</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="N12" s="9">
-        <f>M12+$F12</f>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
     </row>
@@ -1951,23 +7030,23 @@
         <v>17</v>
       </c>
       <c r="J13" s="9">
-        <f>I13+$F13</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="K13" s="9">
-        <f>J13+$F13</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="L13" s="9">
-        <f>K13+$F13</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="M13" s="9">
-        <f>L13+$F13</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="N13" s="9">
-        <f>M13+$F13</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
     </row>
@@ -1982,7 +7061,7 @@
         <v>30000</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" ref="D14:D20" si="2">(C$12-C14)/C$12</f>
+        <f t="shared" ref="D14:D20" si="3">(C$12-C14)/C$12</f>
         <v>6.25E-2</v>
       </c>
       <c r="E14" s="2">
@@ -2001,23 +7080,23 @@
         <v>17</v>
       </c>
       <c r="J14" s="9">
-        <f>I14+$F14</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="K14" s="9">
-        <f>J14+$F14</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="L14" s="9">
-        <f>K14+$F14</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="M14" s="9">
-        <f>L14+$F14</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="N14" s="9">
-        <f>M14+$F14</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
     </row>
@@ -2032,7 +7111,7 @@
         <v>27000</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15625</v>
       </c>
       <c r="E15" s="2">
@@ -2051,23 +7130,23 @@
         <v>17</v>
       </c>
       <c r="J15" s="9">
-        <f>I15+$F15</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="K15" s="9">
-        <f>J15+$F15</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="L15" s="9">
-        <f>K15+$F15</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="M15" s="9">
-        <f>L15+$F15</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="N15" s="9">
-        <f>M15+$F15</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
     </row>
@@ -2082,7 +7161,7 @@
         <v>27000</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15625</v>
       </c>
       <c r="E16" s="2">
@@ -2101,23 +7180,23 @@
         <v>17</v>
       </c>
       <c r="J16" s="9">
-        <f>I16+$F16</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="K16" s="9">
-        <f>J16+$F16</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="L16" s="9">
-        <f>K16+$F16</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="M16" s="9">
-        <f>L16+$F16</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="N16" s="9">
-        <f>M16+$F16</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
     </row>
@@ -2132,7 +7211,7 @@
         <v>23500</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.265625</v>
       </c>
       <c r="E17" s="2">
@@ -2151,23 +7230,23 @@
         <v>17</v>
       </c>
       <c r="J17" s="9">
-        <f>I17+$F17</f>
+        <f t="shared" si="2"/>
         <v>20.5</v>
       </c>
       <c r="K17" s="9">
-        <f>J17+$F17</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="L17" s="9">
-        <f>K17+$F17</f>
+        <f t="shared" si="2"/>
         <v>27.5</v>
       </c>
       <c r="M17" s="9">
-        <f>L17+$F17</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="N17" s="9">
-        <f>M17+$F17</f>
+        <f t="shared" si="2"/>
         <v>34.5</v>
       </c>
     </row>
@@ -2182,7 +7261,7 @@
         <v>22000</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3125</v>
       </c>
       <c r="E18" s="2">
@@ -2201,23 +7280,23 @@
         <v>17</v>
       </c>
       <c r="J18" s="9">
-        <f>I18+$F18</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K18" s="9">
-        <f>J18+$F18</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="L18" s="9">
-        <f>K18+$F18</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="M18" s="9">
-        <f>L18+$F18</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="N18" s="9">
-        <f>M18+$F18</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
@@ -2232,7 +7311,7 @@
         <v>21600</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.32500000000000001</v>
       </c>
       <c r="E19" s="2">
@@ -2251,23 +7330,23 @@
         <v>17</v>
       </c>
       <c r="J19" s="9">
-        <f>I19+$F19</f>
+        <f t="shared" si="2"/>
         <v>19.8</v>
       </c>
       <c r="K19" s="9">
-        <f>J19+$F19</f>
+        <f t="shared" si="2"/>
         <v>22.6</v>
       </c>
       <c r="L19" s="9">
-        <f>K19+$F19</f>
+        <f t="shared" si="2"/>
         <v>25.400000000000002</v>
       </c>
       <c r="M19" s="9">
-        <f>L19+$F19</f>
+        <f t="shared" si="2"/>
         <v>28.200000000000003</v>
       </c>
       <c r="N19" s="9">
-        <f>M19+$F19</f>
+        <f t="shared" si="2"/>
         <v>31.000000000000004</v>
       </c>
     </row>
@@ -2282,7 +7361,7 @@
         <v>23300</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.27187499999999998</v>
       </c>
       <c r="E20" s="2">
@@ -2301,23 +7380,23 @@
         <v>17</v>
       </c>
       <c r="J20" s="9">
-        <f>I20+$F20</f>
+        <f t="shared" si="2"/>
         <v>20.5</v>
       </c>
       <c r="K20" s="9">
-        <f>J20+$F20</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="L20" s="9">
-        <f>K20+$F20</f>
+        <f t="shared" si="2"/>
         <v>27.5</v>
       </c>
       <c r="M20" s="9">
-        <f>L20+$F20</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="N20" s="9">
-        <f>M20+$F20</f>
+        <f t="shared" si="2"/>
         <v>34.5</v>
       </c>
       <c r="S20" s="9"/>

--- a/+ExperimentPkg/EGTDecayData.xlsx
+++ b/+ExperimentPkg/EGTDecayData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/279bc981ad399937/Desktop/phdshit/ideas/FAST/^MExperimentPkg/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/279bc981ad399937/Desktop/ideas/FAST/^MExperimentPkg/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="204" documentId="11_F25DC773A252ABDACC1048AE315C4FCC5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{113A73FD-83EB-45DB-B9BF-DEC81FA161F0}"/>
   <bookViews>
-    <workbookView xWindow="2570" yWindow="1600" windowWidth="14170" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="380" yWindow="380" windowWidth="21580" windowHeight="11650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SV_cycle" sheetId="2" r:id="rId1"/>
@@ -4980,7 +4980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B381FDB8-0139-4634-92E7-683DB926A4B4}">
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L20" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="W59" sqref="W59"/>
     </sheetView>
   </sheetViews>
@@ -5114,11 +5114,11 @@
         <v>15</v>
       </c>
       <c r="P2">
-        <f>O2+M2*(H2-2000)/1000</f>
+        <f t="shared" ref="P2:P20" si="0">O2+M2*(H2-2000)/1000</f>
         <v>27</v>
       </c>
       <c r="Q2" s="10">
-        <f>(F2-P2)/F2</f>
+        <f t="shared" ref="Q2:Q20" si="1">(F2-P2)/F2</f>
         <v>0.49056603773584906</v>
       </c>
       <c r="R2">
@@ -5151,7 +5151,7 @@
         <v>75</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G5" si="0">F3*0.8</f>
+        <f t="shared" ref="G3:G5" si="2">F3*0.8</f>
         <v>60</v>
       </c>
       <c r="H3">
@@ -5164,11 +5164,11 @@
         <v>4500</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K20" si="1">I3+H3</f>
+        <f t="shared" ref="K3:K20" si="3">I3+H3</f>
         <v>12000</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L20" si="2">K3+J3</f>
+        <f t="shared" ref="L3:L20" si="4">K3+J3</f>
         <v>16500</v>
       </c>
       <c r="M3">
@@ -5181,19 +5181,19 @@
         <v>11</v>
       </c>
       <c r="P3">
-        <f>O3+M3*(H3-2000)/1000</f>
+        <f t="shared" si="0"/>
         <v>22.75</v>
       </c>
       <c r="Q3" s="10">
-        <f>(F3-P3)/F3</f>
+        <f t="shared" si="1"/>
         <v>0.69666666666666666</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R20" si="3">P3*0.85</f>
+        <f t="shared" ref="R3:R20" si="5">P3*0.85</f>
         <v>19.337499999999999</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S20" si="4">G3-P3+R3</f>
+        <f t="shared" ref="S3:S20" si="6">G3-P3+R3</f>
         <v>56.587499999999999</v>
       </c>
       <c r="T3" s="4"/>
@@ -5212,14 +5212,14 @@
         <v>20000</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E5" si="5">(D$2-D4)/D$2</f>
+        <f t="shared" ref="E4:E5" si="7">(D$2-D4)/D$2</f>
         <v>0.14893617021276595</v>
       </c>
       <c r="F4" s="2">
         <v>140</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
       <c r="H4">
@@ -5232,11 +5232,11 @@
         <v>5200</v>
       </c>
       <c r="K4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13600</v>
       </c>
       <c r="L4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18800</v>
       </c>
       <c r="M4">
@@ -5249,19 +5249,19 @@
         <v>10</v>
       </c>
       <c r="P4">
-        <f>O4+M4*(H4-2000)/1000</f>
+        <f t="shared" si="0"/>
         <v>21.2</v>
       </c>
       <c r="Q4" s="10">
-        <f>(F4-P4)/F4</f>
+        <f t="shared" si="1"/>
         <v>0.84857142857142853</v>
       </c>
       <c r="R4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18.02</v>
       </c>
       <c r="S4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>108.82</v>
       </c>
     </row>
@@ -5279,14 +5279,14 @@
         <v>18500</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.21276595744680851</v>
       </c>
       <c r="F5" s="2">
         <v>145</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>116</v>
       </c>
       <c r="H5">
@@ -5299,11 +5299,11 @@
         <v>5600</v>
       </c>
       <c r="K5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14700</v>
       </c>
       <c r="L5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20300</v>
       </c>
       <c r="M5">
@@ -5316,19 +5316,19 @@
         <v>9</v>
       </c>
       <c r="P5">
-        <f>O5+M5*(H5-2000)/1000</f>
+        <f t="shared" si="0"/>
         <v>21.4</v>
       </c>
       <c r="Q5" s="10">
-        <f>(F5-P5)/F5</f>
+        <f t="shared" si="1"/>
         <v>0.85241379310344823</v>
       </c>
       <c r="R5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18.189999999999998</v>
       </c>
       <c r="S5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>112.78999999999999</v>
       </c>
     </row>
@@ -5346,7 +5346,7 @@
         <v>23040</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6:E9" si="6">(D$11-D6)/D$11</f>
+        <f t="shared" ref="E6:E9" si="8">(D$11-D6)/D$11</f>
         <v>0.27088607594936709</v>
       </c>
       <c r="F6">
@@ -5365,11 +5365,11 @@
         <v>9000</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20000</v>
       </c>
       <c r="L6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>29000</v>
       </c>
       <c r="M6">
@@ -5382,19 +5382,19 @@
         <v>9</v>
       </c>
       <c r="P6">
-        <f>O6+M6*(H6-2000)/1000</f>
+        <f t="shared" si="0"/>
         <v>27.9</v>
       </c>
       <c r="Q6" s="10">
-        <f>(F6-P6)/F6</f>
+        <f t="shared" si="1"/>
         <v>0.72099999999999997</v>
       </c>
       <c r="R6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23.715</v>
       </c>
       <c r="S6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>70.814999999999998</v>
       </c>
     </row>
@@ -5412,7 +5412,7 @@
         <v>24480</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.22531645569620254</v>
       </c>
       <c r="F7">
@@ -5431,11 +5431,11 @@
         <v>9000</v>
       </c>
       <c r="K7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20000</v>
       </c>
       <c r="L7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>29000</v>
       </c>
       <c r="M7">
@@ -5448,19 +5448,19 @@
         <v>9</v>
       </c>
       <c r="P7">
-        <f>O7+M7*(H7-2000)/1000</f>
+        <f t="shared" si="0"/>
         <v>29.7</v>
       </c>
       <c r="Q7" s="10">
-        <f>(F7-P7)/F7</f>
+        <f t="shared" si="1"/>
         <v>0.66999999999999993</v>
       </c>
       <c r="R7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>25.244999999999997</v>
       </c>
       <c r="S7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>70.544999999999987</v>
       </c>
     </row>
@@ -5478,7 +5478,7 @@
         <v>24800</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.21518987341772153</v>
       </c>
       <c r="F8">
@@ -5497,11 +5497,11 @@
         <v>9000</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17000</v>
       </c>
       <c r="L8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>26000</v>
       </c>
       <c r="M8">
@@ -5514,19 +5514,19 @@
         <v>11</v>
       </c>
       <c r="P8">
-        <f>O8+M8*(H8-2000)/1000</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="Q8" s="10">
-        <f>(F8-P8)/F8</f>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="R8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>27.2</v>
       </c>
       <c r="S8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>60.2</v>
       </c>
     </row>
@@ -5544,7 +5544,7 @@
         <v>24800</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.21518987341772153</v>
       </c>
       <c r="F9">
@@ -5563,11 +5563,11 @@
         <v>7000</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16500</v>
       </c>
       <c r="L9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>23500</v>
       </c>
       <c r="M9">
@@ -5580,19 +5580,19 @@
         <v>14</v>
       </c>
       <c r="P9">
-        <f>O9+M9*(H9-2000)/1000</f>
+        <f t="shared" si="0"/>
         <v>34.25</v>
       </c>
       <c r="Q9" s="10">
-        <f>(F9-P9)/F9</f>
+        <f t="shared" si="1"/>
         <v>0.51071428571428568</v>
       </c>
       <c r="R9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>29.112500000000001</v>
       </c>
       <c r="S9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>49.862499999999997</v>
       </c>
     </row>
@@ -5629,11 +5629,11 @@
         <v>5750</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12750</v>
       </c>
       <c r="L10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18500</v>
       </c>
       <c r="M10">
@@ -5646,19 +5646,19 @@
         <v>14</v>
       </c>
       <c r="P10">
-        <f>O10+M10*(H10-2000)/1000</f>
+        <f t="shared" si="0"/>
         <v>31.5</v>
       </c>
       <c r="Q10" s="10">
-        <f>(F10-P10)/F10</f>
+        <f t="shared" si="1"/>
         <v>0.42727272727272725</v>
       </c>
       <c r="R10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26.774999999999999</v>
       </c>
       <c r="S10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>40.274999999999999</v>
       </c>
     </row>
@@ -5694,11 +5694,11 @@
         <v>5750</v>
       </c>
       <c r="K11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12750</v>
       </c>
       <c r="L11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18500</v>
       </c>
       <c r="M11">
@@ -5711,19 +5711,19 @@
         <v>15</v>
       </c>
       <c r="P11">
-        <f>O11+M11*(H11-2000)/1000</f>
+        <f t="shared" si="0"/>
         <v>35.5</v>
       </c>
       <c r="Q11" s="10">
-        <f>(F11-P11)/F11</f>
+        <f t="shared" si="1"/>
         <v>0.21111111111111111</v>
       </c>
       <c r="R11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>30.175000000000001</v>
       </c>
       <c r="S11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>29.675000000000001</v>
       </c>
     </row>
@@ -5760,11 +5760,11 @@
         <v>6000</v>
       </c>
       <c r="K12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14000</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20000</v>
       </c>
       <c r="M12" s="9">
@@ -5777,19 +5777,19 @@
         <v>17</v>
       </c>
       <c r="P12">
-        <f>O12+M12*(H12-2000)/1000</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="Q12" s="10">
-        <f>(F12-P12)/F12</f>
+        <f t="shared" si="1"/>
         <v>0.10606060606060606</v>
       </c>
       <c r="R12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>50.15</v>
       </c>
       <c r="S12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>43.95</v>
       </c>
     </row>
@@ -5827,11 +5827,11 @@
         <v>6000</v>
       </c>
       <c r="K13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17000</v>
       </c>
       <c r="L13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>23000</v>
       </c>
       <c r="M13" s="9">
@@ -5844,19 +5844,19 @@
         <v>17</v>
       </c>
       <c r="P13">
-        <f>O13+M13*(H13-2000)/1000</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="Q13" s="10">
-        <f>(F13-P13)/F13</f>
+        <f t="shared" si="1"/>
         <v>0.31578947368421051</v>
       </c>
       <c r="R13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>55.25</v>
       </c>
       <c r="S13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>66.25</v>
       </c>
     </row>
@@ -5874,7 +5874,7 @@
         <v>30000</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" ref="E14:E19" si="7">(D$12-D14)/D$12</f>
+        <f t="shared" ref="E14:E19" si="9">(D$12-D14)/D$12</f>
         <v>6.25E-2</v>
       </c>
       <c r="F14" s="2">
@@ -5893,11 +5893,11 @@
         <v>7000</v>
       </c>
       <c r="K14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19000</v>
       </c>
       <c r="L14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>26000</v>
       </c>
       <c r="M14" s="9">
@@ -5910,19 +5910,19 @@
         <v>17</v>
       </c>
       <c r="P14">
-        <f>O14+M14*(H14-2000)/1000</f>
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="Q14" s="10">
-        <f>(F14-P14)/F14</f>
+        <f t="shared" si="1"/>
         <v>0.32380952380952382</v>
       </c>
       <c r="R14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>60.35</v>
       </c>
       <c r="S14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>69.349999999999994</v>
       </c>
     </row>
@@ -5940,7 +5940,7 @@
         <v>27000</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.15625</v>
       </c>
       <c r="F15" s="2">
@@ -5960,11 +5960,11 @@
         <v>8000</v>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28000</v>
       </c>
       <c r="L15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>36000</v>
       </c>
       <c r="M15" s="9">
@@ -5977,19 +5977,19 @@
         <v>17</v>
       </c>
       <c r="P15">
-        <f>O15+M15*(H15-2000)/1000</f>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="Q15" s="10">
-        <f>(F15-P15)/F15</f>
+        <f t="shared" si="1"/>
         <v>0.25688073394495414</v>
       </c>
       <c r="R15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>68.849999999999994</v>
       </c>
       <c r="S15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>75.05</v>
       </c>
     </row>
@@ -6007,7 +6007,7 @@
         <v>27000</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.15625</v>
       </c>
       <c r="F16" s="2">
@@ -6027,11 +6027,11 @@
         <v>8000</v>
       </c>
       <c r="K16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28000</v>
       </c>
       <c r="L16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>36000</v>
       </c>
       <c r="M16" s="9">
@@ -6044,19 +6044,19 @@
         <v>17</v>
       </c>
       <c r="P16">
-        <f>O16+M16*(H16-2000)/1000</f>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="Q16" s="10">
-        <f>(F16-P16)/F16</f>
+        <f t="shared" si="1"/>
         <v>0.25688073394495414</v>
       </c>
       <c r="R16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>68.849999999999994</v>
       </c>
       <c r="S16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>75.05</v>
       </c>
     </row>
@@ -6074,7 +6074,7 @@
         <v>23500</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.265625</v>
       </c>
       <c r="F17" s="2">
@@ -6094,11 +6094,11 @@
         <v>9000</v>
       </c>
       <c r="K17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30000</v>
       </c>
       <c r="L17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>39000</v>
       </c>
       <c r="M17" s="9">
@@ -6111,19 +6111,19 @@
         <v>17</v>
       </c>
       <c r="P17">
-        <f>O17+M17*(H17-2000)/1000</f>
+        <f t="shared" si="0"/>
         <v>76.5</v>
       </c>
       <c r="Q17" s="10">
-        <f>(F17-P17)/F17</f>
+        <f t="shared" si="1"/>
         <v>0.47241379310344828</v>
       </c>
       <c r="R17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>65.024999999999991</v>
       </c>
       <c r="S17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>101.625</v>
       </c>
     </row>
@@ -6141,14 +6141,14 @@
         <v>22000</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.3125</v>
       </c>
       <c r="F18" s="2">
         <v>163</v>
       </c>
       <c r="G18">
-        <f t="shared" ref="G18:G20" si="8">F18*0.78</f>
+        <f t="shared" ref="G18:G20" si="10">F18*0.78</f>
         <v>127.14</v>
       </c>
       <c r="H18">
@@ -6161,11 +6161,11 @@
         <v>10000</v>
       </c>
       <c r="K18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32000</v>
       </c>
       <c r="L18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42000</v>
       </c>
       <c r="M18" s="9">
@@ -6178,19 +6178,19 @@
         <v>17</v>
       </c>
       <c r="P18">
-        <f>O18+M18*(H18-2000)/1000</f>
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="Q18" s="10">
-        <f>(F18-P18)/F18</f>
+        <f t="shared" si="1"/>
         <v>0.56441717791411039</v>
       </c>
       <c r="R18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>60.35</v>
       </c>
       <c r="S18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>116.49000000000001</v>
       </c>
     </row>
@@ -6208,14 +6208,14 @@
         <v>21600</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.32500000000000001</v>
       </c>
       <c r="F19" s="2">
         <v>180</v>
       </c>
       <c r="G19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>140.4</v>
       </c>
       <c r="H19">
@@ -6228,11 +6228,11 @@
         <v>10000</v>
       </c>
       <c r="K19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32000</v>
       </c>
       <c r="L19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42000</v>
       </c>
       <c r="M19" s="9">
@@ -6245,19 +6245,19 @@
         <v>17</v>
       </c>
       <c r="P19">
-        <f>O19+M19*(H19-2000)/1000</f>
+        <f t="shared" si="0"/>
         <v>67.400000000000006</v>
       </c>
       <c r="Q19" s="10">
-        <f>(F19-P19)/F19</f>
+        <f t="shared" si="1"/>
         <v>0.62555555555555553</v>
       </c>
       <c r="R19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>57.290000000000006</v>
       </c>
       <c r="S19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>130.29000000000002</v>
       </c>
     </row>
@@ -6282,7 +6282,7 @@
         <v>145</v>
       </c>
       <c r="G20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>113.10000000000001</v>
       </c>
       <c r="H20">
@@ -6295,11 +6295,11 @@
         <v>9000</v>
       </c>
       <c r="K20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30000</v>
       </c>
       <c r="L20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>39000</v>
       </c>
       <c r="M20" s="9">
@@ -6312,19 +6312,19 @@
         <v>17</v>
       </c>
       <c r="P20">
-        <f>O20+M20*(H20-2000)/1000</f>
+        <f t="shared" si="0"/>
         <v>76.5</v>
       </c>
       <c r="Q20" s="10">
-        <f>(F20-P20)/F20</f>
+        <f t="shared" si="1"/>
         <v>0.47241379310344828</v>
       </c>
       <c r="R20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>65.024999999999991</v>
       </c>
       <c r="S20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>101.625</v>
       </c>
     </row>
@@ -6374,7 +6374,7 @@
         <v>4000</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28:B30" si="9">B27+3</f>
+        <f t="shared" ref="B28:B30" si="11">B27+3</f>
         <v>21</v>
       </c>
     </row>
@@ -6383,7 +6383,7 @@
         <v>5000</v>
       </c>
       <c r="B29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
     </row>
@@ -6392,7 +6392,7 @@
         <v>6000</v>
       </c>
       <c r="B30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
     </row>

--- a/+ExperimentPkg/EGTDecayData.xlsx
+++ b/+ExperimentPkg/EGTDecayData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/279bc981ad399937/Desktop/ideas/FAST/^MExperimentPkg/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/emmasmit_umich_edu/Documents/Desktop/ideas/FAST/+ExperimentPkg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="11_F25DC773A252ABDACC1048AE315C4FCC5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{113A73FD-83EB-45DB-B9BF-DEC81FA161F0}"/>
+  <xr:revisionPtr revIDLastSave="393" documentId="11_F25DC773A252ABDACC1048AE315C4FCC5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25FD40E0-F66E-4827-9A1B-83C5E61FCB53}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="380" yWindow="380" windowWidth="21580" windowHeight="11650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="27855" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SV_cycle" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="48">
   <si>
     <t>Engine</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>EIS</t>
+  </si>
+  <si>
+    <t>2000c_EGT</t>
   </si>
 </sst>
 </file>
@@ -855,39 +858,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10912599720975635"/>
+          <c:y val="4.2801556420233464E-2"/>
+          <c:w val="0.76318882520376119"/>
+          <c:h val="0.56992738748123406"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -896,11 +879,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>SV_cycle!$F$1</c:f>
+              <c:f>SV_cycle!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EGT_Margin</c:v>
+                  <c:v>CFM56-3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -927,12 +910,120 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14157316182981242"/>
+                  <c:y val="4.6220472440944883E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14193511603699016"/>
+                  <c:y val="-5.7222341370752779E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>SV_cycle!$E$2:$E$20</c:f>
+              <c:f>SV_cycle!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -944,61 +1035,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.21276595744680851</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.27088607594936709</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.22531645569620254</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.21518987341772153</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.21518987341772153</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.3797468354430382E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.15625</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.15625</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.265625</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.3125</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.32500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.27187499999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SV_cycle!$F$2:$F$20</c:f>
+              <c:f>SV_cycle!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>53</c:v>
                 </c:pt>
@@ -1009,51 +1055,6 @@
                   <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>145</c:v>
                 </c:pt>
               </c:numCache>
@@ -1063,6 +1064,410 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8B77-4440-B9F1-105E7ED808DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SV_cycle!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V2522-A5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.2744442147595516E-2"/>
+                  <c:y val="8.5206348233708137E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.9230739328181896E-2"/>
+                  <c:y val="0.17538404975642635"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SV_cycle!$E$6:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.27088607594936709</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22531645569620254</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21518987341772153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21518987341772153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3797468354430382E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SV_cycle!$F$6:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-116A-40E8-8286-F150D71FEC48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SV_cycle!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CFM56-5B3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.19418972792964784"/>
+                  <c:y val="-2.0975826465271609E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.19259902989361657"/>
+                  <c:y val="8.7995342994577036E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SV_cycle!$E$12:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.265625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27187499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SV_cycle!$F$12:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-116A-40E8-8286-F150D71FEC48}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1098,6 +1503,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Derate Thrust %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1122,10 +1580,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1160,6 +1615,81 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>EGT</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Margin </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>°C</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1184,10 +1714,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1209,6 +1736,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1288,11 +1847,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>EGT</a:t>
+              <a:t>Decay</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> v Cycles Rate</a:t>
+              <a:t> Rate</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1338,11 +1897,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>SV_cycle!$M$1</c:f>
+              <c:f>SV_cycle!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ratec</c:v>
+                  <c:v>CFM56-3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1369,12 +1928,62 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.586206322518353E-3"/>
+                  <c:y val="5.825532734981554E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>SV_cycle!$E$2:$E$20</c:f>
+              <c:f>SV_cycle!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1386,61 +1995,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.21276595744680851</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.27088607594936709</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.22531645569620254</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.21518987341772153</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.21518987341772153</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.3797468354430382E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.15625</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.15625</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.265625</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.3125</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.32500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.27187499999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SV_cycle!$M$2:$M$20</c:f>
+              <c:f>SV_cycle!$M$2:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1452,51 +2016,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.0">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.0">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.0">
-                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1505,6 +2024,318 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5538-41D1-827F-77AD2AC678CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SV_cycle!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V2522-A5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1667693229678214"/>
+                  <c:y val="8.168988491823137E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SV_cycle!$E$6:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.27088607594936709</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22531645569620254</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21518987341772153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21518987341772153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3797468354430382E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SV_cycle!$M$6:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5575-4CBE-B039-84A88F069DDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SV_cycle!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CFM56-5B3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.8098749812721607E-2"/>
+                  <c:y val="-0.10667529321072629"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SV_cycle!$E$12:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.265625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27187499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SV_cycle!$M$12:$M$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5575-4CBE-B039-84A88F069DDD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1540,6 +2371,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Derate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1602,6 +2488,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>EGT Linear Decay Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1651,6 +2592,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1730,7 +2702,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t> EGT</a:t>
+              <a:t> 1000c EGT</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -1779,11 +2751,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>SV_cycle!$N$1</c:f>
+              <c:f>SV_cycle!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1000c_EGTdecay</c:v>
+                  <c:v>CFM56-3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1810,12 +2782,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>SV_cycle!$E$2:$E$20</c:f>
+              <c:f>SV_cycle!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1827,61 +2843,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.21276595744680851</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.27088607594936709</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.22531645569620254</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.21518987341772153</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.21518987341772153</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.3797468354430382E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.15625</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.15625</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.265625</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.3125</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.32500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.27187499999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SV_cycle!$N$2:$N$20</c:f>
+              <c:f>SV_cycle!$N$2:$N$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1893,51 +2864,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1950,21 +2876,168 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>SV_cycle!$O$1</c:f>
+              <c:f>SV_cycle!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2000c_EGTdecay</c:v>
+                  <c:v>V2522-A5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.9279603063315709E-2"/>
+                  <c:y val="0.11653251135815808"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SV_cycle!$E$6:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.27088607594936709</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22531645569620254</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21518987341772153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21518987341772153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3797468354430382E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SV_cycle!$N$6:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-A945-4F6B-9212-E7A56210477A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SV_cycle!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CFM56-5B3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1985,67 +3058,81 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>SV_cycle!$E$2:$E$20</c:f>
+              <c:f>SV_cycle!$E$12:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3829787234042548E-2</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14893617021276595</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21276595744680851</c:v>
+                  <c:v>0.15625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27088607594936709</c:v>
+                  <c:v>0.15625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22531645569620254</c:v>
+                  <c:v>0.265625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.21518987341772153</c:v>
+                  <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21518987341772153</c:v>
+                  <c:v>0.32500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.3797468354430382E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.15625</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.15625</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.265625</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.3125</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.32500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>0.27187499999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -2053,66 +3140,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SV_cycle!$O$2:$O$20</c:f>
+              <c:f>SV_cycle!$N$12:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>17</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2120,7 +3177,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7E27-49BC-9136-75ED4BB86BF5}"/>
+              <c16:uniqueId val="{00000006-A945-4F6B-9212-E7A56210477A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2342,6 +3399,1063 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> 2000c</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>EGT</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Decay</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SV_cycle!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CFM56-3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15059070218962356"/>
+                  <c:y val="-0.11945305538106438"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SV_cycle!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3829787234042548E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14893617021276595</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21276595744680851</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SV_cycle!$Q$2:$Q$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5380-41F0-80FD-3EAF86C57693}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SV_cycle!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CFM56-5B3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SV_cycle!$E$12:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.265625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27187499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SV_cycle!$P$12:$P$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5380-41F0-80FD-3EAF86C57693}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SV_cycle!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V2522-A5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.20078645237838422"/>
+                  <c:y val="5.6102435247542111E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SV_cycle!$E$6:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.27088607594936709</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22531645569620254</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21518987341772153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21518987341772153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3797468354430382E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SV_cycle!$P$6:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5380-41F0-80FD-3EAF86C57693}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1666477839"/>
+        <c:axId val="1666473999"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1666477839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1666473999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1666473999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1666477839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SV_cycle!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3829787234042548E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14893617021276595</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21276595744680851</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SV_cycle!$Q$2:$Q$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C66F-416E-9247-C1546E5EB265}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1107375392"/>
+        <c:axId val="1107374432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1107375392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1107374432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1107374432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1107375392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2502,6 +4616,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4051,6 +6245,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4606,16 +7832,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>631825</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>60324</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4642,20 +7868,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>612775</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>117475</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="59" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48CD6CE0-DAF8-FEB2-B171-EB8B31A5B4E9}"/>
@@ -4678,20 +7904,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>701675</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>79374</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>206375</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>387349</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="120" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F34B0D2-C771-EF61-332F-731298FC4F3F}"/>
@@ -4712,7 +7938,85 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>384175</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="108" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6091B3A-CCFE-427C-9394-C5A54AFB0E8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="121" name="Chart 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8B92D63-B7E0-F7F1-9F10-C71C423EA925}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4978,24 +8282,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B381FDB8-0139-4634-92E7-683DB926A4B4}">
-  <dimension ref="A1:AK30"/>
+  <dimension ref="A1:AL30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W59" sqref="W59"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" customWidth="1"/>
-    <col min="6" max="6" width="12.08984375" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" customWidth="1"/>
-    <col min="8" max="8" width="13.36328125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="15.08984375" customWidth="1"/>
-    <col min="17" max="17" width="13.81640625" customWidth="1"/>
+    <col min="15" max="16" width="15.140625" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5042,15 +8346,17 @@
         <v>42</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Y1"/>
       <c r="Z1"/>
       <c r="AA1"/>
       <c r="AB1"/>
@@ -5063,8 +8369,9 @@
       <c r="AI1"/>
       <c r="AJ1"/>
       <c r="AK1"/>
+      <c r="AL1"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5114,23 +8421,27 @@
         <v>15</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P20" si="0">O2+M2*(H2-2000)/1000</f>
+        <f>O2-N2</f>
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q20" si="0">O2+M2*(H2-2000)/1000</f>
         <v>27</v>
       </c>
-      <c r="Q2" s="10">
-        <f t="shared" ref="Q2:Q20" si="1">(F2-P2)/F2</f>
+      <c r="R2" s="10">
+        <f t="shared" ref="R2:R19" si="1" xml:space="preserve"> (F2-Q2)/F2</f>
         <v>0.49056603773584906</v>
       </c>
-      <c r="R2">
-        <f>P2*0.85</f>
+      <c r="S2">
+        <f>Q2*0.85</f>
         <v>22.95</v>
       </c>
-      <c r="S2">
-        <f>G2-P2+R2</f>
+      <c r="T2">
+        <f>G2-Q2+S2</f>
         <v>38.350000000000009</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5181,24 +8492,28 @@
         <v>11</v>
       </c>
       <c r="P3">
+        <f>O3-N3</f>
+        <v>4</v>
+      </c>
+      <c r="Q3">
         <f t="shared" si="0"/>
         <v>22.75</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="R3" s="10">
         <f t="shared" si="1"/>
         <v>0.69666666666666666</v>
       </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R20" si="5">P3*0.85</f>
+      <c r="S3">
+        <f t="shared" ref="S3:S20" si="5">Q3*0.85</f>
         <v>19.337499999999999</v>
       </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S20" si="6">G3-P3+R3</f>
+      <c r="T3">
+        <f t="shared" ref="T3:T20" si="6">G3-Q3+S3</f>
         <v>56.587499999999999</v>
       </c>
-      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -5249,23 +8564,27 @@
         <v>10</v>
       </c>
       <c r="P4">
-        <f t="shared" si="0"/>
+        <f>O4-N4</f>
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <f>O4+M4*(H4-2000)/1000</f>
         <v>21.2</v>
       </c>
-      <c r="Q4" s="10">
-        <f t="shared" si="1"/>
+      <c r="R4" s="10">
+        <f xml:space="preserve"> (F4-Q4)/F4</f>
         <v>0.84857142857142853</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <f t="shared" si="5"/>
         <v>18.02</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <f t="shared" si="6"/>
         <v>108.82</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -5316,23 +8635,27 @@
         <v>9</v>
       </c>
       <c r="P5">
+        <f>O5-N5</f>
+        <v>3</v>
+      </c>
+      <c r="Q5">
         <f t="shared" si="0"/>
         <v>21.4</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="R5" s="10">
         <f t="shared" si="1"/>
         <v>0.85241379310344823</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <f t="shared" si="5"/>
         <v>18.189999999999998</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <f t="shared" si="6"/>
         <v>112.78999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -5382,23 +8705,27 @@
         <v>9</v>
       </c>
       <c r="P6">
+        <f>O6-N6</f>
+        <v>4</v>
+      </c>
+      <c r="Q6">
         <f t="shared" si="0"/>
         <v>27.9</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="R6" s="10">
         <f t="shared" si="1"/>
         <v>0.72099999999999997</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <f t="shared" si="5"/>
         <v>23.715</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <f t="shared" si="6"/>
         <v>70.814999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -5448,23 +8775,27 @@
         <v>9</v>
       </c>
       <c r="P7">
+        <f>O7-N7</f>
+        <v>4</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="0"/>
         <v>29.7</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="R7" s="10">
         <f t="shared" si="1"/>
         <v>0.66999999999999993</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <f t="shared" si="5"/>
         <v>25.244999999999997</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <f t="shared" si="6"/>
         <v>70.544999999999987</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -5514,23 +8845,27 @@
         <v>11</v>
       </c>
       <c r="P8">
+        <f>O8-N8</f>
+        <v>5</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="R8" s="10">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <f t="shared" si="5"/>
         <v>27.2</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <f t="shared" si="6"/>
         <v>60.2</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -5580,23 +8915,27 @@
         <v>14</v>
       </c>
       <c r="P9">
+        <f>O9-N9</f>
+        <v>6</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="0"/>
         <v>34.25</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="R9" s="10">
         <f t="shared" si="1"/>
         <v>0.51071428571428568</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <f t="shared" si="5"/>
         <v>29.112500000000001</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <f t="shared" si="6"/>
         <v>49.862499999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -5646,23 +8985,27 @@
         <v>14</v>
       </c>
       <c r="P10">
+        <f>O10-N10</f>
+        <v>6</v>
+      </c>
+      <c r="Q10">
         <f t="shared" si="0"/>
         <v>31.5</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="R10" s="10">
         <f t="shared" si="1"/>
         <v>0.42727272727272725</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <f t="shared" si="5"/>
         <v>26.774999999999999</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <f t="shared" si="6"/>
         <v>40.274999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -5711,23 +9054,27 @@
         <v>15</v>
       </c>
       <c r="P11">
+        <f>O11-N11</f>
+        <v>7</v>
+      </c>
+      <c r="Q11">
         <f t="shared" si="0"/>
         <v>35.5</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="R11" s="10">
         <f t="shared" si="1"/>
         <v>0.21111111111111111</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <f t="shared" si="5"/>
         <v>30.175000000000001</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <f t="shared" si="6"/>
         <v>29.675000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -5777,23 +9124,27 @@
         <v>17</v>
       </c>
       <c r="P12">
+        <f>O12-N12</f>
+        <v>7</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="R12" s="10">
         <f t="shared" si="1"/>
         <v>0.10606060606060606</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <f t="shared" si="5"/>
         <v>50.15</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <f t="shared" si="6"/>
         <v>43.95</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -5844,23 +9195,27 @@
         <v>17</v>
       </c>
       <c r="P13">
+        <f>O13-N13</f>
+        <v>7</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="R13" s="10">
         <f t="shared" si="1"/>
         <v>0.31578947368421051</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <f t="shared" si="5"/>
         <v>55.25</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <f t="shared" si="6"/>
         <v>66.25</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -5910,23 +9265,27 @@
         <v>17</v>
       </c>
       <c r="P14">
+        <f>O14-N14</f>
+        <v>7</v>
+      </c>
+      <c r="Q14">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="R14" s="10">
         <f t="shared" si="1"/>
         <v>0.32380952380952382</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <f t="shared" si="5"/>
         <v>60.35</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <f t="shared" si="6"/>
         <v>69.349999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -5977,23 +9336,27 @@
         <v>17</v>
       </c>
       <c r="P15">
+        <f>O15-N15</f>
+        <v>7</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="R15" s="10">
         <f t="shared" si="1"/>
         <v>0.25688073394495414</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <f t="shared" si="5"/>
         <v>68.849999999999994</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <f t="shared" si="6"/>
         <v>75.05</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -6044,23 +9407,27 @@
         <v>17</v>
       </c>
       <c r="P16">
+        <f>O16-N16</f>
+        <v>7</v>
+      </c>
+      <c r="Q16">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="R16" s="10">
         <f t="shared" si="1"/>
         <v>0.25688073394495414</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <f t="shared" si="5"/>
         <v>68.849999999999994</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <f t="shared" si="6"/>
         <v>75.05</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -6111,23 +9478,27 @@
         <v>17</v>
       </c>
       <c r="P17">
+        <f>O17-N17</f>
+        <v>7</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="0"/>
         <v>76.5</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="R17" s="10">
         <f t="shared" si="1"/>
         <v>0.47241379310344828</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <f t="shared" si="5"/>
         <v>65.024999999999991</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <f t="shared" si="6"/>
         <v>101.625</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -6178,23 +9549,27 @@
         <v>17</v>
       </c>
       <c r="P18">
+        <f>O18-N18</f>
+        <v>7</v>
+      </c>
+      <c r="Q18">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="R18" s="10">
         <f t="shared" si="1"/>
         <v>0.56441717791411039</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <f t="shared" si="5"/>
         <v>60.35</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <f t="shared" si="6"/>
         <v>116.49000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -6245,23 +9620,27 @@
         <v>17</v>
       </c>
       <c r="P19">
+        <f>O19-N19</f>
+        <v>7</v>
+      </c>
+      <c r="Q19">
         <f t="shared" si="0"/>
         <v>67.400000000000006</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="R19" s="10">
         <f t="shared" si="1"/>
         <v>0.62555555555555553</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <f t="shared" si="5"/>
         <v>57.290000000000006</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <f t="shared" si="6"/>
         <v>130.29000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -6312,23 +9691,27 @@
         <v>17</v>
       </c>
       <c r="P20">
+        <f>O20-N20</f>
+        <v>7</v>
+      </c>
+      <c r="Q20">
         <f t="shared" si="0"/>
         <v>76.5</v>
       </c>
-      <c r="Q20" s="10">
-        <f t="shared" si="1"/>
-        <v>0.47241379310344828</v>
-      </c>
-      <c r="R20">
+      <c r="R20" s="10">
+        <f t="shared" ref="R3:R20" si="11">(F20 - (F20-Q20))/F20</f>
+        <v>0.52758620689655178</v>
+      </c>
+      <c r="S20">
         <f t="shared" si="5"/>
         <v>65.024999999999991</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <f t="shared" si="6"/>
         <v>101.625</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -6336,7 +9719,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -6344,7 +9727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1000</v>
       </c>
@@ -6352,7 +9735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2000</v>
       </c>
@@ -6360,7 +9743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3000</v>
       </c>
@@ -6369,30 +9752,30 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4000</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28:B30" si="11">B27+3</f>
+        <f t="shared" ref="B28:B30" si="12">B27+3</f>
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5000</v>
       </c>
       <c r="B29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6000</v>
       </c>
       <c r="B30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>27</v>
       </c>
     </row>
@@ -6410,12 +9793,12 @@
       <selection activeCell="F1" sqref="F1:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="6" width="11.36328125" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6472,7 +9855,7 @@
       <c r="AG1"/>
       <c r="AH1"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -6516,7 +9899,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6562,7 +9945,7 @@
       </c>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6607,7 +9990,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -6652,7 +10035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -6702,7 +10085,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -6752,7 +10135,7 @@
         <v>20.500000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -6802,7 +10185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -6852,7 +10235,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -6902,7 +10285,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -6951,7 +10334,7 @@
         <v>35.500000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -7000,7 +10383,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -7050,7 +10433,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -7100,7 +10483,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -7150,7 +10533,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -7200,7 +10583,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -7250,7 +10633,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -7300,7 +10683,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -7350,7 +10733,7 @@
         <v>31.000000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>

--- a/+ExperimentPkg/EGTDecayData.xlsx
+++ b/+ExperimentPkg/EGTDecayData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/emmasmit_umich_edu/Documents/Desktop/ideas/FAST/+ExperimentPkg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="393" documentId="11_F25DC773A252ABDACC1048AE315C4FCC5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25FD40E0-F66E-4827-9A1B-83C5E61FCB53}"/>
+  <xr:revisionPtr revIDLastSave="419" documentId="11_F25DC773A252ABDACC1048AE315C4FCC5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B40822A-73D3-4AF0-8035-11E817B00A19}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="27855" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SV_cycle" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="48">
   <si>
     <t>Engine</t>
   </si>
@@ -305,7 +305,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>EGT v Cycles for CFM56-3C No Derate</a:t>
+              <a:t>EGT Decay for CFM56-3C No Derate</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -406,13 +406,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -526,16 +526,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -717,7 +717,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>EGT Decay</a:t>
+                  <a:t>EGT Margin</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2849,21 +2849,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SV_cycle!$N$2:$N$5</c:f>
+              <c:f>SV_cycle!$O$2:$O$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2990,27 +2990,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SV_cycle!$N$6:$N$11</c:f>
+              <c:f>SV_cycle!$O$6:$O$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3140,36 +3140,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SV_cycle!$N$12:$N$20</c:f>
+              <c:f>SV_cycle!$O$12:$O$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3595,21 +3595,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SV_cycle!$Q$2:$Q$5</c:f>
+              <c:f>SV_cycle!$S$2:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.75</c:v>
+                  <c:v>52.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.2</c:v>
+                  <c:v>118.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.4</c:v>
+                  <c:v>123.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3739,7 +3739,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SV_cycle!$P$12:$P$20</c:f>
+              <c:f>SV_cycle!$R$12:$R$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3895,7 +3895,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SV_cycle!$P$6:$P$11</c:f>
+              <c:f>SV_cycle!$R$6:$R$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4243,21 +4243,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SV_cycle!$Q$2:$Q$5</c:f>
+              <c:f>SV_cycle!$S$2:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.75</c:v>
+                  <c:v>52.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.2</c:v>
+                  <c:v>118.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.4</c:v>
+                  <c:v>123.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7802,7 +7802,7 @@
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>1022350</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
@@ -7832,13 +7832,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>60324</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>174625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>361949</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -7868,13 +7868,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>374650</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
@@ -7904,13 +7904,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>79374</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>387349</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
@@ -7940,13 +7940,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>384175</xdr:colOff>
       <xdr:row>98</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
@@ -7978,13 +7978,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -8013,10 +8013,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8282,24 +8278,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B381FDB8-0139-4634-92E7-683DB926A4B4}">
-  <dimension ref="A1:AL30"/>
+  <dimension ref="A1:AN30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="H11" zoomScale="83" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="16" width="15.140625" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" customWidth="1"/>
+    <col min="14" max="15" width="16" customWidth="1"/>
+    <col min="16" max="18" width="15.1796875" customWidth="1"/>
+    <col min="20" max="20" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8343,22 +8339,26 @@
         <v>41</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Z1"/>
-      <c r="AA1"/>
       <c r="AB1"/>
       <c r="AC1"/>
       <c r="AD1"/>
@@ -8370,8 +8370,10 @@
       <c r="AJ1"/>
       <c r="AK1"/>
       <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -8418,30 +8420,38 @@
         <v>10</v>
       </c>
       <c r="O2">
+        <f>F2-N2</f>
+        <v>43</v>
+      </c>
+      <c r="P2">
         <v>15</v>
       </c>
-      <c r="P2">
-        <f>O2-N2</f>
+      <c r="Q2">
+        <f>F2-P2</f>
+        <v>38</v>
+      </c>
+      <c r="R2">
+        <f>O2-Q2</f>
         <v>5</v>
       </c>
-      <c r="Q2">
-        <f t="shared" ref="Q2:Q20" si="0">O2+M2*(H2-2000)/1000</f>
-        <v>27</v>
-      </c>
-      <c r="R2" s="10">
-        <f t="shared" ref="R2:R19" si="1" xml:space="preserve"> (F2-Q2)/F2</f>
-        <v>0.49056603773584906</v>
-      </c>
       <c r="S2">
-        <f>Q2*0.85</f>
-        <v>22.95</v>
-      </c>
-      <c r="T2">
-        <f>G2-Q2+S2</f>
-        <v>38.350000000000009</v>
+        <f>Q2-M2*(H2-2000)/1000</f>
+        <v>26</v>
+      </c>
+      <c r="T2" s="10">
+        <f t="shared" ref="T2:T19" si="0" xml:space="preserve"> (F2-S2)/F2</f>
+        <v>0.50943396226415094</v>
+      </c>
+      <c r="U2">
+        <f>S2*0.85</f>
+        <v>22.099999999999998</v>
+      </c>
+      <c r="V2">
+        <f>G2-S2+U2</f>
+        <v>38.5</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -8462,7 +8472,7 @@
         <v>75</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G5" si="2">F3*0.8</f>
+        <f t="shared" ref="G3:G5" si="1">F3*0.8</f>
         <v>60</v>
       </c>
       <c r="H3">
@@ -8475,11 +8485,11 @@
         <v>4500</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K20" si="3">I3+H3</f>
+        <f t="shared" ref="K3:K20" si="2">I3+H3</f>
         <v>12000</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L20" si="4">K3+J3</f>
+        <f t="shared" ref="L3:L20" si="3">K3+J3</f>
         <v>16500</v>
       </c>
       <c r="M3">
@@ -8489,31 +8499,39 @@
         <v>7</v>
       </c>
       <c r="O3">
+        <f t="shared" ref="O3:O20" si="4">F3-N3</f>
+        <v>68</v>
+      </c>
+      <c r="P3">
         <v>11</v>
       </c>
-      <c r="P3">
-        <f>O3-N3</f>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q20" si="5">F3-P3</f>
+        <v>64</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R20" si="6">O3-Q3</f>
         <v>4</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
+        <f t="shared" ref="S3:S20" si="7">Q3-M3*(H3-2000)/1000</f>
+        <v>52.25</v>
+      </c>
+      <c r="T3" s="10">
         <f t="shared" si="0"/>
-        <v>22.75</v>
-      </c>
-      <c r="R3" s="10">
-        <f t="shared" si="1"/>
-        <v>0.69666666666666666</v>
-      </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S20" si="5">Q3*0.85</f>
-        <v>19.337499999999999</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T20" si="6">G3-Q3+S3</f>
-        <v>56.587499999999999</v>
-      </c>
-      <c r="U3" s="4"/>
+        <v>0.30333333333333334</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U20" si="8">S3*0.85</f>
+        <v>44.412500000000001</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V20" si="9">G3-S3+U3</f>
+        <v>52.162500000000001</v>
+      </c>
+      <c r="W3" s="4"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -8527,14 +8545,14 @@
         <v>20000</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E5" si="7">(D$2-D4)/D$2</f>
+        <f t="shared" ref="E4:E5" si="10">(D$2-D4)/D$2</f>
         <v>0.14893617021276595</v>
       </c>
       <c r="F4" s="2">
         <v>140</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="H4">
@@ -8547,11 +8565,11 @@
         <v>5200</v>
       </c>
       <c r="K4">
+        <f t="shared" si="2"/>
+        <v>13600</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="3"/>
-        <v>13600</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="4"/>
         <v>18800</v>
       </c>
       <c r="M4">
@@ -8561,30 +8579,38 @@
         <v>7</v>
       </c>
       <c r="O4">
+        <f t="shared" si="4"/>
+        <v>133</v>
+      </c>
+      <c r="P4">
         <v>10</v>
       </c>
-      <c r="P4">
-        <f>O4-N4</f>
+      <c r="Q4">
+        <f t="shared" si="5"/>
+        <v>130</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="Q4">
-        <f>O4+M4*(H4-2000)/1000</f>
-        <v>21.2</v>
-      </c>
-      <c r="R4" s="10">
-        <f xml:space="preserve"> (F4-Q4)/F4</f>
-        <v>0.84857142857142853</v>
-      </c>
       <c r="S4">
-        <f t="shared" si="5"/>
-        <v>18.02</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="6"/>
-        <v>108.82</v>
+        <f t="shared" si="7"/>
+        <v>118.8</v>
+      </c>
+      <c r="T4" s="10">
+        <f xml:space="preserve"> (F4-S4)/F4</f>
+        <v>0.15142857142857144</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="8"/>
+        <v>100.97999999999999</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="9"/>
+        <v>94.179999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -8598,14 +8624,14 @@
         <v>18500</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.21276595744680851</v>
       </c>
       <c r="F5" s="2">
         <v>145</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="H5">
@@ -8618,11 +8644,11 @@
         <v>5600</v>
       </c>
       <c r="K5">
+        <f t="shared" si="2"/>
+        <v>14700</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="3"/>
-        <v>14700</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="4"/>
         <v>20300</v>
       </c>
       <c r="M5">
@@ -8632,30 +8658,38 @@
         <v>6</v>
       </c>
       <c r="O5">
+        <f>F5-N5</f>
+        <v>139</v>
+      </c>
+      <c r="P5">
         <v>9</v>
       </c>
-      <c r="P5">
-        <f>O5-N5</f>
+      <c r="Q5">
+        <f t="shared" si="5"/>
+        <v>136</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
+        <f t="shared" si="7"/>
+        <v>123.6</v>
+      </c>
+      <c r="T5" s="10">
         <f t="shared" si="0"/>
-        <v>21.4</v>
-      </c>
-      <c r="R5" s="10">
-        <f t="shared" si="1"/>
-        <v>0.85241379310344823</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="5"/>
-        <v>18.189999999999998</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="6"/>
-        <v>112.78999999999999</v>
+        <v>0.14758620689655177</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="8"/>
+        <v>105.05999999999999</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="9"/>
+        <v>97.46</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -8669,7 +8703,7 @@
         <v>23040</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6:E9" si="8">(D$11-D6)/D$11</f>
+        <f t="shared" ref="E6:E9" si="11">(D$11-D6)/D$11</f>
         <v>0.27088607594936709</v>
       </c>
       <c r="F6">
@@ -8688,11 +8722,11 @@
         <v>9000</v>
       </c>
       <c r="K6">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="3"/>
-        <v>20000</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="4"/>
         <v>29000</v>
       </c>
       <c r="M6">
@@ -8702,30 +8736,38 @@
         <v>5</v>
       </c>
       <c r="O6">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="P6">
         <v>9</v>
       </c>
-      <c r="P6">
-        <f>O6-N6</f>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
+        <f t="shared" si="7"/>
+        <v>72.099999999999994</v>
+      </c>
+      <c r="T6" s="10">
         <f t="shared" si="0"/>
-        <v>27.9</v>
-      </c>
-      <c r="R6" s="10">
-        <f t="shared" si="1"/>
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="5"/>
-        <v>23.715</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="6"/>
-        <v>70.814999999999998</v>
+        <v>0.27900000000000008</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="8"/>
+        <v>61.284999999999997</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="9"/>
+        <v>64.185000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -8739,7 +8781,7 @@
         <v>24480</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.22531645569620254</v>
       </c>
       <c r="F7">
@@ -8758,11 +8800,11 @@
         <v>9000</v>
       </c>
       <c r="K7">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="3"/>
-        <v>20000</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="4"/>
         <v>29000</v>
       </c>
       <c r="M7">
@@ -8772,30 +8814,38 @@
         <v>5</v>
       </c>
       <c r="O7">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="P7">
         <v>9</v>
       </c>
-      <c r="P7">
-        <f>O7-N7</f>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
+        <f t="shared" si="7"/>
+        <v>60.3</v>
+      </c>
+      <c r="T7" s="10">
         <f t="shared" si="0"/>
-        <v>29.7</v>
-      </c>
-      <c r="R7" s="10">
-        <f t="shared" si="1"/>
-        <v>0.66999999999999993</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="5"/>
-        <v>25.244999999999997</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="6"/>
-        <v>70.544999999999987</v>
+        <v>0.33</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="8"/>
+        <v>51.254999999999995</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="9"/>
+        <v>65.954999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -8809,7 +8859,7 @@
         <v>24800</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.21518987341772153</v>
       </c>
       <c r="F8">
@@ -8828,11 +8878,11 @@
         <v>9000</v>
       </c>
       <c r="K8">
+        <f t="shared" si="2"/>
+        <v>17000</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="3"/>
-        <v>17000</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="4"/>
         <v>26000</v>
       </c>
       <c r="M8">
@@ -8842,30 +8892,38 @@
         <v>6</v>
       </c>
       <c r="O8">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="P8">
         <v>11</v>
       </c>
-      <c r="P8">
-        <f>O8-N8</f>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="T8" s="10">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="R8" s="10">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="5"/>
-        <v>27.2</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="6"/>
-        <v>60.2</v>
+        <v>0.4</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="8"/>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="9"/>
+        <v>57.8</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -8879,7 +8937,7 @@
         <v>24800</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.21518987341772153</v>
       </c>
       <c r="F9">
@@ -8898,11 +8956,11 @@
         <v>7000</v>
       </c>
       <c r="K9">
+        <f t="shared" si="2"/>
+        <v>16500</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="3"/>
-        <v>16500</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="4"/>
         <v>23500</v>
       </c>
       <c r="M9">
@@ -8912,30 +8970,38 @@
         <v>8</v>
       </c>
       <c r="O9">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="P9">
         <v>14</v>
       </c>
-      <c r="P9">
-        <f>O9-N9</f>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
+        <f t="shared" si="7"/>
+        <v>35.75</v>
+      </c>
+      <c r="T9" s="10">
         <f t="shared" si="0"/>
-        <v>34.25</v>
-      </c>
-      <c r="R9" s="10">
-        <f t="shared" si="1"/>
-        <v>0.51071428571428568</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="5"/>
-        <v>29.112500000000001</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="6"/>
-        <v>49.862499999999997</v>
+        <v>0.48928571428571427</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="8"/>
+        <v>30.387499999999999</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="9"/>
+        <v>49.637500000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -8968,11 +9034,11 @@
         <v>5750</v>
       </c>
       <c r="K10">
+        <f t="shared" si="2"/>
+        <v>12750</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="3"/>
-        <v>12750</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="4"/>
         <v>18500</v>
       </c>
       <c r="M10">
@@ -8982,30 +9048,38 @@
         <v>8</v>
       </c>
       <c r="O10">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="P10">
         <v>14</v>
       </c>
-      <c r="P10">
-        <f>O10-N10</f>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
+        <f t="shared" si="7"/>
+        <v>23.5</v>
+      </c>
+      <c r="T10" s="10">
         <f t="shared" si="0"/>
-        <v>31.5</v>
-      </c>
-      <c r="R10" s="10">
-        <f t="shared" si="1"/>
-        <v>0.42727272727272725</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="5"/>
-        <v>26.774999999999999</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="6"/>
-        <v>40.274999999999999</v>
+        <v>0.57272727272727275</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="8"/>
+        <v>19.974999999999998</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="9"/>
+        <v>41.474999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -9037,11 +9111,11 @@
         <v>5750</v>
       </c>
       <c r="K11">
+        <f t="shared" si="2"/>
+        <v>12750</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="3"/>
-        <v>12750</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="4"/>
         <v>18500</v>
       </c>
       <c r="M11">
@@ -9051,30 +9125,38 @@
         <v>8</v>
       </c>
       <c r="O11">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="P11">
         <v>15</v>
       </c>
-      <c r="P11">
-        <f>O11-N11</f>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
+        <f t="shared" si="7"/>
+        <v>9.5</v>
+      </c>
+      <c r="T11" s="10">
         <f t="shared" si="0"/>
-        <v>35.5</v>
-      </c>
-      <c r="R11" s="10">
-        <f t="shared" si="1"/>
-        <v>0.21111111111111111</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="5"/>
-        <v>30.175000000000001</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="6"/>
-        <v>29.675000000000001</v>
+        <v>0.78888888888888886</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="8"/>
+        <v>8.0749999999999993</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="9"/>
+        <v>33.575000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -9107,11 +9189,11 @@
         <v>6000</v>
       </c>
       <c r="K12">
+        <f t="shared" si="2"/>
+        <v>14000</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="3"/>
-        <v>14000</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="4"/>
         <v>20000</v>
       </c>
       <c r="M12" s="9">
@@ -9121,30 +9203,38 @@
         <v>10</v>
       </c>
       <c r="O12">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="P12">
         <v>17</v>
       </c>
-      <c r="P12">
-        <f>O12-N12</f>
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="T12" s="10">
         <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="R12" s="10">
-        <f t="shared" si="1"/>
-        <v>0.10606060606060606</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="5"/>
-        <v>50.15</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="6"/>
-        <v>43.95</v>
+        <v>0.89393939393939392</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="8"/>
+        <v>5.95</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="9"/>
+        <v>51.750000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -9178,11 +9268,11 @@
         <v>6000</v>
       </c>
       <c r="K13">
+        <f t="shared" si="2"/>
+        <v>17000</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="3"/>
-        <v>17000</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="4"/>
         <v>23000</v>
       </c>
       <c r="M13" s="9">
@@ -9192,30 +9282,38 @@
         <v>10</v>
       </c>
       <c r="O13">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="P13">
         <v>17</v>
       </c>
-      <c r="P13">
-        <f>O13-N13</f>
+      <c r="Q13">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="T13" s="10">
         <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="R13" s="10">
-        <f t="shared" si="1"/>
-        <v>0.31578947368421051</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="5"/>
-        <v>55.25</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="6"/>
-        <v>66.25</v>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="8"/>
+        <v>25.5</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="9"/>
+        <v>71.5</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -9229,7 +9327,7 @@
         <v>30000</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" ref="E14:E19" si="9">(D$12-D14)/D$12</f>
+        <f t="shared" ref="E14:E19" si="12">(D$12-D14)/D$12</f>
         <v>6.25E-2</v>
       </c>
       <c r="F14" s="2">
@@ -9248,11 +9346,11 @@
         <v>7000</v>
       </c>
       <c r="K14">
+        <f t="shared" si="2"/>
+        <v>19000</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="3"/>
-        <v>19000</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="4"/>
         <v>26000</v>
       </c>
       <c r="M14" s="9">
@@ -9262,30 +9360,38 @@
         <v>10</v>
       </c>
       <c r="O14">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="P14">
         <v>17</v>
       </c>
-      <c r="P14">
-        <f>O14-N14</f>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="T14" s="10">
         <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="R14" s="10">
-        <f t="shared" si="1"/>
-        <v>0.32380952380952382</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="5"/>
-        <v>60.35</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="6"/>
-        <v>69.349999999999994</v>
+        <v>0.67619047619047623</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="8"/>
+        <v>28.9</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="9"/>
+        <v>74.900000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -9299,7 +9405,7 @@
         <v>27000</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.15625</v>
       </c>
       <c r="F15" s="2">
@@ -9319,11 +9425,11 @@
         <v>8000</v>
       </c>
       <c r="K15">
+        <f t="shared" si="2"/>
+        <v>28000</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="3"/>
-        <v>28000</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="4"/>
         <v>36000</v>
       </c>
       <c r="M15" s="9">
@@ -9333,30 +9439,38 @@
         <v>10</v>
       </c>
       <c r="O15">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="P15">
         <v>17</v>
       </c>
-      <c r="P15">
-        <f>O15-N15</f>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="T15" s="10">
         <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="R15" s="10">
-        <f t="shared" si="1"/>
-        <v>0.25688073394495414</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="5"/>
-        <v>68.849999999999994</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="6"/>
-        <v>75.05</v>
+        <v>0.74311926605504586</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="8"/>
+        <v>23.8</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="9"/>
+        <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -9370,7 +9484,7 @@
         <v>27000</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.15625</v>
       </c>
       <c r="F16" s="2">
@@ -9390,11 +9504,11 @@
         <v>8000</v>
       </c>
       <c r="K16">
+        <f t="shared" si="2"/>
+        <v>28000</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="3"/>
-        <v>28000</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="4"/>
         <v>36000</v>
       </c>
       <c r="M16" s="9">
@@ -9404,30 +9518,38 @@
         <v>10</v>
       </c>
       <c r="O16">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="P16">
         <v>17</v>
       </c>
-      <c r="P16">
-        <f>O16-N16</f>
+      <c r="Q16">
+        <f t="shared" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="T16" s="10">
         <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="R16" s="10">
-        <f t="shared" si="1"/>
-        <v>0.25688073394495414</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="5"/>
-        <v>68.849999999999994</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="6"/>
-        <v>75.05</v>
+        <v>0.74311926605504586</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="8"/>
+        <v>23.8</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="9"/>
+        <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -9441,7 +9563,7 @@
         <v>23500</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.265625</v>
       </c>
       <c r="F17" s="2">
@@ -9461,11 +9583,11 @@
         <v>9000</v>
       </c>
       <c r="K17">
+        <f t="shared" si="2"/>
+        <v>30000</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="3"/>
-        <v>30000</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="4"/>
         <v>39000</v>
       </c>
       <c r="M17" s="9">
@@ -9475,30 +9597,38 @@
         <v>10</v>
       </c>
       <c r="O17">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="P17">
         <v>17</v>
       </c>
-      <c r="P17">
-        <f>O17-N17</f>
+      <c r="Q17">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
+        <f t="shared" si="7"/>
+        <v>68.5</v>
+      </c>
+      <c r="T17" s="10">
         <f t="shared" si="0"/>
-        <v>76.5</v>
-      </c>
-      <c r="R17" s="10">
-        <f t="shared" si="1"/>
-        <v>0.47241379310344828</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="5"/>
-        <v>65.024999999999991</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="6"/>
-        <v>101.625</v>
+        <v>0.52758620689655178</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="8"/>
+        <v>58.225000000000001</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="9"/>
+        <v>102.82500000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -9512,14 +9642,14 @@
         <v>22000</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.3125</v>
       </c>
       <c r="F18" s="2">
         <v>163</v>
       </c>
       <c r="G18">
-        <f t="shared" ref="G18:G20" si="10">F18*0.78</f>
+        <f t="shared" ref="G18:G20" si="13">F18*0.78</f>
         <v>127.14</v>
       </c>
       <c r="H18">
@@ -9532,11 +9662,11 @@
         <v>10000</v>
       </c>
       <c r="K18">
+        <f t="shared" si="2"/>
+        <v>32000</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="3"/>
-        <v>32000</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="4"/>
         <v>42000</v>
       </c>
       <c r="M18" s="9">
@@ -9546,30 +9676,38 @@
         <v>10</v>
       </c>
       <c r="O18">
+        <f t="shared" si="4"/>
+        <v>153</v>
+      </c>
+      <c r="P18">
         <v>17</v>
       </c>
-      <c r="P18">
-        <f>O18-N18</f>
+      <c r="Q18">
+        <f t="shared" si="5"/>
+        <v>146</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
+        <f t="shared" si="7"/>
+        <v>92</v>
+      </c>
+      <c r="T18" s="10">
         <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="R18" s="10">
-        <f t="shared" si="1"/>
-        <v>0.56441717791411039</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="5"/>
-        <v>60.35</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="6"/>
-        <v>116.49000000000001</v>
+        <v>0.43558282208588955</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="8"/>
+        <v>78.2</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="9"/>
+        <v>113.34</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -9583,14 +9721,14 @@
         <v>21600</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.32500000000000001</v>
       </c>
       <c r="F19" s="2">
         <v>180</v>
       </c>
       <c r="G19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>140.4</v>
       </c>
       <c r="H19">
@@ -9603,11 +9741,11 @@
         <v>10000</v>
       </c>
       <c r="K19">
+        <f t="shared" si="2"/>
+        <v>32000</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="3"/>
-        <v>32000</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="4"/>
         <v>42000</v>
       </c>
       <c r="M19" s="9">
@@ -9617,30 +9755,38 @@
         <v>10</v>
       </c>
       <c r="O19">
+        <f t="shared" si="4"/>
+        <v>170</v>
+      </c>
+      <c r="P19">
         <v>17</v>
       </c>
-      <c r="P19">
-        <f>O19-N19</f>
+      <c r="Q19">
+        <f t="shared" si="5"/>
+        <v>163</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
+        <f t="shared" si="7"/>
+        <v>112.6</v>
+      </c>
+      <c r="T19" s="10">
         <f t="shared" si="0"/>
-        <v>67.400000000000006</v>
-      </c>
-      <c r="R19" s="10">
-        <f t="shared" si="1"/>
-        <v>0.62555555555555553</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="5"/>
-        <v>57.290000000000006</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="6"/>
-        <v>130.29000000000002</v>
+        <v>0.37444444444444447</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="8"/>
+        <v>95.71</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="9"/>
+        <v>123.51</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -9661,7 +9807,7 @@
         <v>145</v>
       </c>
       <c r="G20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>113.10000000000001</v>
       </c>
       <c r="H20">
@@ -9674,11 +9820,11 @@
         <v>9000</v>
       </c>
       <c r="K20">
+        <f t="shared" si="2"/>
+        <v>30000</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="3"/>
-        <v>30000</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="4"/>
         <v>39000</v>
       </c>
       <c r="M20" s="9">
@@ -9688,30 +9834,38 @@
         <v>10</v>
       </c>
       <c r="O20">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="P20">
         <v>17</v>
       </c>
-      <c r="P20">
-        <f>O20-N20</f>
+      <c r="Q20">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="Q20">
-        <f t="shared" si="0"/>
-        <v>76.5</v>
-      </c>
-      <c r="R20" s="10">
-        <f t="shared" ref="R3:R20" si="11">(F20 - (F20-Q20))/F20</f>
-        <v>0.52758620689655178</v>
-      </c>
       <c r="S20">
-        <f t="shared" si="5"/>
-        <v>65.024999999999991</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="6"/>
-        <v>101.625</v>
+        <f t="shared" si="7"/>
+        <v>68.5</v>
+      </c>
+      <c r="T20" s="10">
+        <f t="shared" ref="T20" si="14">(F20 - (F20-S20))/F20</f>
+        <v>0.47241379310344828</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="8"/>
+        <v>58.225000000000001</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="9"/>
+        <v>102.82500000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -9719,64 +9873,64 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1000</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2000</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3000</v>
       </c>
       <c r="B27">
-        <f>B26+3</f>
-        <v>18</v>
+        <f>B26-3</f>
+        <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>4000</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28:B30" si="12">B27+3</f>
-        <v>21</v>
+        <f t="shared" ref="B28:B30" si="15">B27-3</f>
+        <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>5000</v>
       </c>
       <c r="B29">
-        <f t="shared" si="12"/>
-        <v>24</v>
+        <f t="shared" si="15"/>
+        <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>6000</v>
       </c>
       <c r="B30">
-        <f t="shared" si="12"/>
-        <v>27</v>
+        <f t="shared" si="15"/>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -9793,12 +9947,12 @@
       <selection activeCell="F1" sqref="F1:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="6" width="11.42578125" customWidth="1"/>
+    <col min="5" max="6" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9855,7 +10009,7 @@
       <c r="AG1"/>
       <c r="AH1"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -9899,7 +10053,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -9945,7 +10099,7 @@
       </c>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -9990,7 +10144,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -10035,7 +10189,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -10085,7 +10239,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -10135,7 +10289,7 @@
         <v>20.500000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -10185,7 +10339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -10235,7 +10389,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -10285,7 +10439,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -10334,7 +10488,7 @@
         <v>35.500000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -10383,7 +10537,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -10433,7 +10587,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -10483,7 +10637,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -10533,7 +10687,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -10583,7 +10737,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -10633,7 +10787,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -10683,7 +10837,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -10733,7 +10887,7 @@
         <v>31.000000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>36</v>
       </c>
